--- a/data/trans_orig/MCS12_SP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Estudios-trans_orig.xlsx
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>50.85601842936129</v>
+        <v>50.8560184293613</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>50.50017461514501</v>
+        <v>50.50017461514503</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>50.96196942312957</v>
@@ -672,7 +672,7 @@
         <v>50.8407462708044</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>49.91282607231761</v>
+        <v>49.91282607231762</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>47.20921937624361</v>
@@ -693,7 +693,7 @@
         <v>49.18411196058403</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>48.99072895450476</v>
+        <v>48.99072895450478</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>50.32353545928048</v>
+        <v>50.29559171261682</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>49.91627708633686</v>
+        <v>49.85062931691959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50.31077806454628</v>
+        <v>50.35983708045259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49.97763393205675</v>
+        <v>50.04070863343232</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>49.37332838621372</v>
+        <v>49.38113713237218</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>46.5419977659589</v>
+        <v>46.54780901169601</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>47.04656481669175</v>
+        <v>47.04858712625783</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>47.13240786859576</v>
+        <v>47.08216514787586</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>49.93716631748531</v>
+        <v>49.94012381558021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48.12876652923373</v>
+        <v>48.11108730960749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48.65556433917769</v>
+        <v>48.62425669447856</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>48.47724010315806</v>
+        <v>48.52650412414103</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>51.37018521235269</v>
+        <v>51.36573168052291</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>51.14771981863354</v>
+        <v>51.08405187173765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51.53162685540258</v>
+        <v>51.59603612995988</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51.54849976199953</v>
+        <v>51.5366645309954</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>50.43919529311551</v>
+        <v>50.45333771766118</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>47.81534118862285</v>
+        <v>47.81955013971</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>48.6237275579763</v>
+        <v>48.58800553857833</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>48.33067333335731</v>
+        <v>48.29096790112422</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>50.71673542496035</v>
+        <v>50.7003186377177</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49.04488512365821</v>
+        <v>49.02447066849955</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49.69022190630213</v>
+        <v>49.66004264303763</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>49.45786798322001</v>
+        <v>49.4761593013265</v>
       </c>
     </row>
     <row r="7">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>53.36233961392424</v>
+        <v>53.36233961392425</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>52.53203017431502</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.75786585333888</v>
+        <v>52.75786585333889</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53.00583714773084</v>
+        <v>53.00583714773085</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>51.26411102812086</v>
@@ -817,16 +817,16 @@
         <v>51.5000336699188</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>51.48279270448022</v>
+        <v>51.48279270448021</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>52.34703511420942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51.34871464729596</v>
+        <v>51.34871464729595</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52.14257886476165</v>
+        <v>52.14257886476164</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>52.25395839114877</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>53.05948558300238</v>
+        <v>53.04595512320692</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>52.16289358653486</v>
+        <v>52.19246889763185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52.41034943985517</v>
+        <v>52.39337390331506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52.63114095871019</v>
+        <v>52.60026679505638</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>50.84416461465123</v>
+        <v>50.85986569616947</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>49.5525162235248</v>
+        <v>49.56957278776127</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>51.1085349863263</v>
+        <v>51.08981530410299</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>51.09261453302798</v>
+        <v>51.12187155397292</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>52.08641841216528</v>
+        <v>52.10283339009006</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51.04664248847656</v>
+        <v>51.04253063412719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51.90258988305933</v>
+        <v>51.88381938875406</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>51.96523003329678</v>
+        <v>51.97561728375244</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.62472942748965</v>
+        <v>53.65446259320332</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>52.84705314818096</v>
+        <v>52.84135831279576</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.08384794627429</v>
+        <v>53.06650865897723</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53.35300984250557</v>
+        <v>53.35789924565867</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>51.69761801175789</v>
+        <v>51.68035606377081</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>50.4704098753996</v>
+        <v>50.52480018858098</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>51.90784024311836</v>
+        <v>51.84815202346095</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>51.8194254052757</v>
+        <v>51.82331784939288</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>52.62562453503966</v>
+        <v>52.59907410839038</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51.60442855842526</v>
+        <v>51.61394192006432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52.38437877279092</v>
+        <v>52.39544551974365</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>52.51424971320338</v>
+        <v>52.5049221963159</v>
       </c>
     </row>
     <row r="10">
@@ -950,7 +950,7 @@
         <v>52.07774216059706</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>52.38225688109516</v>
+        <v>52.38225688109515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51.61507078088598</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>52.65846217293493</v>
+        <v>52.73614320443776</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>52.52122430863626</v>
+        <v>52.5239084441083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52.6259532383528</v>
+        <v>52.61887464009762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52.33057160607763</v>
+        <v>52.31918843740483</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>50.76168802200962</v>
+        <v>50.70210515094526</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>51.31430159642687</v>
+        <v>51.32112381014099</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>51.70096825815536</v>
+        <v>51.70297846106772</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>51.03367650106454</v>
+        <v>50.98641305880202</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>51.98557277069612</v>
+        <v>51.98734769528502</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52.06449997476579</v>
+        <v>52.15221841595935</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52.39567111830672</v>
+        <v>52.34057183982603</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>51.83431034100266</v>
+        <v>51.88364356624405</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.76187502136646</v>
+        <v>53.80369714540353</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>53.89564393374867</v>
+        <v>53.84394685557342</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53.79014245007086</v>
+        <v>53.77117690387183</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53.55464139810871</v>
+        <v>53.48175140955357</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>52.16600114000339</v>
+        <v>52.19917459230058</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>52.79784170407446</v>
+        <v>52.80267150876953</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>52.95602937655966</v>
+        <v>52.95308680530004</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>52.12728352751122</v>
+        <v>52.1958030095996</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>52.88310991599206</v>
+        <v>52.87846400416326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53.15976098693793</v>
+        <v>53.15109135541384</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53.23197609981752</v>
+        <v>53.19358507821978</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>52.67724298762142</v>
+        <v>52.67542183716031</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>52.44044383799836</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52.64460011010117</v>
+        <v>52.64460011010118</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>50.77200480067182</v>
@@ -1089,7 +1089,7 @@
         <v>50.60532194283122</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>50.67749618684059</v>
+        <v>50.67749618684058</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>51.65125042061771</v>
@@ -1101,7 +1101,7 @@
         <v>51.50236870570589</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>51.63309329630596</v>
+        <v>51.63309329630598</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>52.28462533983519</v>
+        <v>52.29649153240307</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>51.75823130455191</v>
+        <v>51.79126104123708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52.17967620462694</v>
+        <v>52.16604283631387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52.32607498211591</v>
+        <v>52.339098038101</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>50.44993439366063</v>
+        <v>50.46703393800826</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>48.88966744413474</v>
+        <v>48.86430024206762</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>50.2862498670291</v>
+        <v>50.26899084633292</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>50.37027834050285</v>
+        <v>50.36956975196504</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.43559183495859</v>
+        <v>51.46247667178969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50.41291008284502</v>
+        <v>50.3686856774881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51.29251097602947</v>
+        <v>51.27685119034756</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>51.42188992067861</v>
+        <v>51.42656544735335</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>52.77406758474165</v>
+        <v>52.78753820284867</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.31973226394027</v>
+        <v>52.32803239080096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52.70145930836396</v>
+        <v>52.70801505983766</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52.92452109092822</v>
+        <v>52.93905450686659</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>51.04512104303689</v>
+        <v>51.05922725717686</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.56613194300957</v>
+        <v>49.56372043940618</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.94365518890039</v>
+        <v>50.91906641209777</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>50.93777686417166</v>
+        <v>50.92650404897667</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>51.83642690436615</v>
+        <v>51.8479516222936</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50.84033624029274</v>
+        <v>50.82967581761137</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51.7191572617599</v>
+        <v>51.69213101491968</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>51.83353948711788</v>
+        <v>51.84405748032756</v>
       </c>
     </row>
     <row r="16">
